--- a/News Visitor/src/NewsVisitor/NewsUrl.xlsx
+++ b/News Visitor/src/NewsVisitor/NewsUrl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>NewsUrl</t>
   </si>
@@ -157,6 +157,186 @@
     <t>https://www.loksatta.com/trending/captain-jack-sparrow-begging-on-the-street-netizens-were-also-confused-by-the-actor-performance-watch-viral-video-pvp-97-3005724/</t>
   </si>
   <si>
+    <t>https://www.loksatta.com/tech/it-became-easier-to-identify-whether-the-website-was-genuine-or-fake-the-truth-will-be-known-in-minutes-pvp-97-3005891/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/confirm-tickets-can-be-booked-from-irctc-at-any-time-just-follow-these-tricks-pvp-97-3006065/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/what-to-say-to-those-who-open-the-umbrella-in-the-station-too-after-watching-this-viral-video-you-cannot-control-laugh-pvp-97-3006245/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/not-getting-enough-sleep-can-increase-the-risk-of-heart-attack-find-out-how-many-hours-of-sleep-is-required-pvp-97-3006415/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/the-boy-became-a-zomato-delivery-boy-and-sent-his-resume-to-the-boss-in-a-pastry-box-pvp-97-3006695/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/gold-silver-rate-in-india-maharashtra-mumbai-pune-nagpur-nashik-today-on-6-july-2022-pvp-97-3007153/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/maharashtra/petrol-diesel-price-today-6-july-2022-in-maharashtra-know-new-rates-of-fuel-pvp-97-3007178/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/swiggy-delivery-boy-horse-service-in-mumbai-torrential-rains-swiggy-announced-prize-for-horse-finder-pvp-97-3007328/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/asus-rog-phone-6-series-launches-in-india-powerful-processor-with-6000mah-battery-pvp-97-3007491/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/trigrahi-yoga-on-guru-pournima-will-be-beneficial-for-people-for-three-zodiac-sign-likely-to-increase-income-pvp-97-3007594/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/the-firm-took-its-entire-team-on-a-two-week-bali-trip-at-the-company-expense-pvp-97-3007757/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/bathing-with-salt-water-will-relieve-stress-learn-about-other-benefits-to-the-body-pvp-97-3007854/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/career-vrutantta/ibps-clerk-xii-recruitment-2022-recruitment-vacancy-details-how-to-apply-job-opportunities-in-bank-pvp-97-3008072/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/unique-research-by-icmr-vcrc-scientists-now-mosquitoes-that-spread-dengue-and-chikungunya-will-protect-against-these-diseases-pvp-97-3008266/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/maharashtra/petrol-diesel-price-in-maharashtra-know-new-rates-of-fuel-today-7-july-2022-pvp-97-3008762/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/gold-silver-rate-on-7-july-2022-in-mumbai-pune-nagpur-nashik-india-maharashtra-pvp-97-3008754/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/auto/tvs-ronin-price-features-milage-details-powerful-bike-enters-the-arena-to-beat-pulsar-pvp-97-3008875/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/video-of-a-color-changing-octopus-goes-viral-on-social-media-pvp-97-3008987/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/numerology-people-with-mulank-4-are-worth-trusted-know-temperament-by-date-of-birth-pvp-3009099/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/nothing-phone-1-will-available-at-half-the-price-of-iphone-13-details-leaked-pvp-97-3009191/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/monsoon-oily-skin-care-tips-easy-home-remedies-will-bring-relief-pvp-97-3009331/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/apple-introduces-new-lockdown-mode-feature-to-protect-its-users-from-hackers-like-pegasus-and-govt-spyware-pvp-97-3009543/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/two-planets-will-transition-into-the-same-zodiac-at-24-hour-intervals-people-of-this-signs-will-get-good-news-pvp-97-3009835/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/gold-silver-price-on-today-8-july-2022-in-mumbai-pune-nagpur-nashik-maharashtra-pvp-97-3010519/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/maharashtra/petrol-diesel-rates-today-8-july-2022-in-maharashtra-know-new-rates-of-fuel-pvp-97-3010545/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/dont-make-these-mistakes-unknowingly-otherwise-venus-saturn-jupiter-will-give-ominous-results-pvp-97-3010692/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/why-is-there-a-button-on-the-cap-do-you-know-the-weird-name-of-these-buttons-find-out-pvp-97-3010778/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/this-man-pulled-five-cars-with-the-help-of-his-teeth-only-and-created-guinness-world-record-watch-viral-video-pvp-97-3010857/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/rapid-increase-in-the-number-of-diabetic-patients-high-blood-sugar-dont-ignore-these-symptoms-pvp-3010940/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/how-to-protect-your-personal-data-from-leaks-learn-simple-tips-pvp-97-3011146/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/everyone-should-have-a-big-family-elon-musk-advises-the-world-after-having-9-children-from-three-different-partners-pvp-97-3011441/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/health-tips-eating-corn-in-the-rainy-season-brings-amazing-benefits-to-the-body-get-involved-in-the-diet-today-pvp-97-3011509/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/multani-soil-is-effective-not-only-for-skin-but-also-for-many-problems-learn-how-to-use-it-pvp-97-3011608/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/gold-silver-rates-today-9-july-2022-in-maharashtra-mumbai-pune-nagpur-nashik-pvp-97-3012167/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/maharashtra/petrol-diesel-rates-on-today-9-july-2022-in-maharashtra-know-new-rates-of-fuel-pvp-97-3012180/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/young-man-used-a-desi-jugad-to-cross-the-road-through-knee-deep-water-video-posted-by-anand-mahindra-got-viral-pvp-97-3012276/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/whoever-controls-the-teleprompter-is-the-real-president-elon-musk-criticizes-joe-biden-pvp-97-3012359/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/shani-gochar-the-next-six-months-are-financially-important-for-people-of-this-zodiac-sign-the-effects-of-saturn-transition-pvp-97-3012460/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/mumbai-local-commuters-help-a-man-on-m-indicator-chat-to-get-day-off-at-his-office-pvp-97-3012571/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/healthy-food-is-it-right-or-wrong-to-eat-sabudana-during-fasting-learn-the-special-benefits-of-these-alternative-foods-pvp-97-3012608/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/persistent-dizziness-may-be-a-symptom-of-a-brain-tumor-this-is-an-indication-that-the-body-gives-early-onset-of-the-disease-pvp-97-3012832/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/13-ott-platform-subscriptions-with-amazon-prime-hotstar-in-one-internet-plan-learn-the-details-pvp-97-3013018/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/bakrid-2022-learn-the-history-and-the-right-way-to-celebrate-this-festival-pvp-97-3013182/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/maharashtra/know-new-rates-of-fuel-petrol-diesel-rates-on-sunday-10-july-2022-in-maharashtra-pvp-97-3013632/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/gold-silver-prices-today-10-july-2022-in-india-maharashtra-mumbai-pune-nagpur-nashik-pvp-97-3013626/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/know-gold-silver-rates-in-india-maharashtra-mumbai-pune-nagpur-nashik-on-today-monday-11-july-2022-pvp-97-3014840/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/auto/what-are-the-new-rates-of-fuel-petrol-diesel-rates-on-monday-11-july-2022-in-mumbai-pune-maharashtra-pvp-97-3014860/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/world-population-day-2022-theme-history-and-why-it-is-celebrated-on-11-july-pvp-97-3014968/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/career-vrutantta/jee-main-first-session-results-2022-announced-find-out-where-to-check-and-how-to-download-pvp-97-3015121/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/dangerous-venomous-snake-was-hidden-inside-the-shoe-you-too-will-be-shocked-to-see-the-viral-video-pvp-97-3015331/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/four-raja-yogas-are-being-formed-on-guru-purnima-2022-doing-these-measures-will-get-you-good-luck-pvp-97-3015584/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/tech/upi-transfer-can-now-be-done-even-without-internet-just-follow-these-simple-steps-pvp-97-3015647/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/health-tips-never-eat-these-foods-with-tea-it-will-harm-our-health-pvp-97-3015903/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/torn-passport-pages-to-hide-affair-from-wife-a-man-had-to-go-to-jail-find-out-the-whole-case-pvp-97-3016072/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/arthasatta/know-gold-silver-rates-on-today-tuesday-12-july-2022-in-india-maharashtra-mumbai-pune-nagpur-nashik-pvp-97-3016598/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/maharashtra/new-rates-of-fuel-petrol-diesel-rates-on-tuesday-12-july-2022-in-mumbai-pune-maharashtra-pvp-97-3016612/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/a-female-journalist-slapped-a-young-man-in-front-of-the-camera-what-exactly-happened-watch-viral-video-pvp-97-3016780/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/astrology/donate-these-items-on-guru-purnima-2022-according-to-your-zodiac-sign-all-desires-will-be-fulfilled-pvp-97-3016914/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/lifestyle/monsoon-tips-increased-risk-of-infection-during-monsoons-learn-how-to-protect-your-skin-pvp-97-3017202/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/trending/the-reverse-waterfall-of-naneghata-is-a-topic-of-discussion-all-over-the-country-have-you-seen-viral-video-pvp-97-3017424/</t>
+  </si>
+  <si>
     <t>https://www.loksatta.com/photos/lifestyle-gallery/3000581/eating-too-many-tomatoes-can-damage-your-body-know-these-things-before-eating-pvp-97/</t>
   </si>
   <si>
@@ -167,6 +347,21 @@
   </si>
   <si>
     <t>https://www.loksatta.com/photos/lifestyle-gallery/3004775/black-pepper-is-very-beneficial-for-men-these-problems-will-go-away-pvp-97/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/photos/lifestyle-gallery/3006775/excessive-consumption-of-fox-nut-can-also-be-dangerous-learn-what-problems-might-arise-pvp-97/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/photos/lifestyle-gallery/3008355/fatigue-due-to-work-stress-power-nap-will-give-you-tremendous-energy-pvp-97/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/photos/lifestyle-gallery/3009972/why-are-most-of-the-seats-in-the-aeroplane-blue-find-out-the-scientific-reason-behind-this-pvp-97/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/photos/lifestyle-gallery/3013456/easy-home-remedies-annoyed-by-acidity-this-home-remedy-will-bring-relief-pvp-97/lite/</t>
+  </si>
+  <si>
+    <t>https://www.loksatta.com/photos/lifestyle-gallery/3017575/hair-fall-increase-in-monsoon-these-home-remedies-will-bring-relief-pvp-97/</t>
   </si>
 </sst>
 </file>
@@ -708,13 +903,338 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +1290,72 @@
     <hyperlink r:id="rId49" ref="A50"/>
     <hyperlink r:id="rId50" ref="A51"/>
     <hyperlink r:id="rId51" ref="A52"/>
+    <hyperlink r:id="rId52" ref="A53"/>
+    <hyperlink r:id="rId53" ref="A54"/>
+    <hyperlink r:id="rId54" ref="A55"/>
+    <hyperlink r:id="rId55" ref="A56"/>
+    <hyperlink r:id="rId56" ref="A57"/>
+    <hyperlink r:id="rId57" ref="A58"/>
+    <hyperlink r:id="rId58" ref="A59"/>
+    <hyperlink r:id="rId59" ref="A60"/>
+    <hyperlink r:id="rId60" ref="A61"/>
+    <hyperlink r:id="rId61" ref="A62"/>
+    <hyperlink r:id="rId62" ref="A63"/>
+    <hyperlink r:id="rId63" ref="A64"/>
+    <hyperlink r:id="rId64" ref="A65"/>
+    <hyperlink r:id="rId65" ref="A66"/>
+    <hyperlink r:id="rId66" ref="A67"/>
+    <hyperlink r:id="rId67" ref="A68"/>
+    <hyperlink r:id="rId68" ref="A69"/>
+    <hyperlink r:id="rId69" ref="A70"/>
+    <hyperlink r:id="rId70" ref="A71"/>
+    <hyperlink r:id="rId71" ref="A72"/>
+    <hyperlink r:id="rId72" ref="A73"/>
+    <hyperlink r:id="rId73" ref="A74"/>
+    <hyperlink r:id="rId74" ref="A75"/>
+    <hyperlink r:id="rId75" ref="A76"/>
+    <hyperlink r:id="rId76" ref="A77"/>
+    <hyperlink r:id="rId77" ref="A78"/>
+    <hyperlink r:id="rId78" ref="A79"/>
+    <hyperlink r:id="rId79" ref="A80"/>
+    <hyperlink r:id="rId80" ref="A81"/>
+    <hyperlink r:id="rId81" ref="A82"/>
+    <hyperlink r:id="rId82" ref="A83"/>
+    <hyperlink r:id="rId83" ref="A84"/>
+    <hyperlink r:id="rId84" ref="A85"/>
+    <hyperlink r:id="rId85" ref="A86"/>
+    <hyperlink r:id="rId86" ref="A87"/>
+    <hyperlink r:id="rId87" ref="A88"/>
+    <hyperlink r:id="rId88" ref="A89"/>
+    <hyperlink r:id="rId89" ref="A90"/>
+    <hyperlink r:id="rId90" ref="A91"/>
+    <hyperlink r:id="rId91" ref="A92"/>
+    <hyperlink r:id="rId92" ref="A93"/>
+    <hyperlink r:id="rId93" ref="A94"/>
+    <hyperlink r:id="rId94" ref="A95"/>
+    <hyperlink r:id="rId95" ref="A96"/>
+    <hyperlink r:id="rId96" ref="A97"/>
+    <hyperlink r:id="rId97" ref="A98"/>
+    <hyperlink r:id="rId98" ref="A99"/>
+    <hyperlink r:id="rId99" ref="A100"/>
+    <hyperlink r:id="rId100" ref="A101"/>
+    <hyperlink r:id="rId101" ref="A102"/>
+    <hyperlink r:id="rId102" ref="A103"/>
+    <hyperlink r:id="rId103" ref="A104"/>
+    <hyperlink r:id="rId104" ref="A105"/>
+    <hyperlink r:id="rId105" ref="A106"/>
+    <hyperlink r:id="rId106" ref="A107"/>
+    <hyperlink r:id="rId107" ref="A108"/>
+    <hyperlink r:id="rId108" ref="A109"/>
+    <hyperlink r:id="rId109" ref="A110"/>
+    <hyperlink r:id="rId110" ref="A111"/>
+    <hyperlink r:id="rId111" ref="A112"/>
+    <hyperlink r:id="rId112" ref="A113"/>
+    <hyperlink r:id="rId113" ref="A114"/>
+    <hyperlink r:id="rId114" ref="A115"/>
+    <hyperlink r:id="rId115" ref="A116"/>
+    <hyperlink r:id="rId116" ref="A117"/>
   </hyperlinks>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId117"/>
 </worksheet>
 </file>